--- a/Documentation/Scrum_Artifacts/Product_Backlog.xlsx
+++ b/Documentation/Scrum_Artifacts/Product_Backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -48,6 +48,33 @@
   </si>
   <si>
     <t>9x9 Board</t>
+  </si>
+  <si>
+    <t>Bots with different difficulty levels</t>
+  </si>
+  <si>
+    <t>Online version for 9x9 board</t>
+  </si>
+  <si>
+    <t>Styling with bootstrap</t>
+  </si>
+  <si>
+    <t>Match history system for users</t>
+  </si>
+  <si>
+    <t>User posts</t>
+  </si>
+  <si>
+    <t>Online version for 3x3 board</t>
+  </si>
+  <si>
+    <t>Social Media integration</t>
+  </si>
+  <si>
+    <t>Ranking for 3x3</t>
+  </si>
+  <si>
+    <t>Ranking for 9x9</t>
   </si>
 </sst>
 </file>
@@ -389,14 +416,14 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="88.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48" style="1" customWidth="1"/>
     <col min="4" max="4" width="50.33203125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
@@ -439,6 +466,9 @@
       <c r="C6" s="3">
         <v>4</v>
       </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -447,33 +477,108 @@
       <c r="C7" s="3">
         <v>8</v>
       </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C16" s="3"/>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>

--- a/Documentation/Scrum_Artifacts/Product_Backlog.xlsx
+++ b/Documentation/Scrum_Artifacts/Product_Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chillcilantro/Documents/KU_Year_2/EECS448/Tactics/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chillcilantro/Documents/KU_Year_2/EECS448/Tactics_Project4/Documentation/Scrum_Artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Estimated time required for completion (hours)</t>
   </si>
   <si>
-    <t>Team 1, Project 3</t>
-  </si>
-  <si>
     <t>3x3 Board</t>
   </si>
   <si>
@@ -75,6 +72,12 @@
   </si>
   <si>
     <t>Ranking for 9x9</t>
+  </si>
+  <si>
+    <t>Team 1, Project 4</t>
+  </si>
+  <si>
+    <t>Profiles</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,7 +433,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -461,7 +464,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
         <v>4</v>
@@ -472,7 +475,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="3">
         <v>8</v>
@@ -483,7 +486,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3">
         <v>5</v>
@@ -494,7 +497,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
@@ -505,7 +508,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
         <v>6</v>
@@ -516,7 +519,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
         <v>3</v>
@@ -527,7 +530,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
@@ -538,7 +541,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
@@ -549,7 +552,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3">
         <v>4</v>
@@ -560,7 +563,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
@@ -571,13 +574,24 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3">
         <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">

--- a/Documentation/Scrum_Artifacts/Product_Backlog.xlsx
+++ b/Documentation/Scrum_Artifacts/Product_Backlog.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,10 +511,10 @@
         <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">

--- a/Documentation/Scrum_Artifacts/Product_Backlog.xlsx
+++ b/Documentation/Scrum_Artifacts/Product_Backlog.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Product Backlog</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Match history system for users</t>
-  </si>
-  <si>
-    <t>User posts</t>
   </si>
   <si>
     <t>Online version for 3x3 board</t>
@@ -416,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -433,7 +430,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -497,7 +494,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>6</v>
@@ -541,7 +538,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3">
         <v>4</v>
@@ -555,10 +552,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -574,32 +571,24 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="3">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
         <v>4</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C21" s="3"/>
@@ -607,24 +596,21 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C23" s="3"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C30" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
